--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\sample_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4BEA00-18BB-4EC2-81EE-49CA1B43489B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4BCD25-BF33-463D-BE99-67E6DCD56BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2955" windowWidth="14160" windowHeight="16785" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="3255" windowWidth="19815" windowHeight="15180" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -141,27 +141,6 @@
     <t>Demanded Shares File</t>
   </si>
   <si>
-    <t>sample_inputs/manufacturers.csv</t>
-  </si>
-  <si>
-    <t>sample_inputs/market_classes.csv</t>
-  </si>
-  <si>
-    <t>sample_inputs/vehicles.csv</t>
-  </si>
-  <si>
-    <t>sample_inputs/demanded_shares-gcam.csv</t>
-  </si>
-  <si>
-    <t>sample_inputs/fuels.csv</t>
-  </si>
-  <si>
-    <t>sample_inputs/cost_curves.csv</t>
-  </si>
-  <si>
-    <t>sample_inputs/ghg_standards-footprint.csv</t>
-  </si>
-  <si>
     <t>ReferencePolicy</t>
   </si>
   <si>
@@ -180,22 +159,43 @@
     <t>Num Tech Options per BEV Vehicle</t>
   </si>
   <si>
-    <t>sample_inputs/fuels_context.csv</t>
-  </si>
-  <si>
-    <t>sample_inputs/ghg_standards-fuels.csv</t>
-  </si>
-  <si>
     <t>GHG Standards Fuels File</t>
   </si>
   <si>
     <t>ZEV Requirement File</t>
   </si>
   <si>
-    <t>sample_inputs/required_zev_share.csv</t>
-  </si>
-  <si>
     <t>Iterate Producer-Consumer</t>
+  </si>
+  <si>
+    <t>input_samples/manufacturers.csv</t>
+  </si>
+  <si>
+    <t>input_samples/market_classes.csv</t>
+  </si>
+  <si>
+    <t>input_samples/vehicles.csv</t>
+  </si>
+  <si>
+    <t>input_samples/demanded_shares-gcam.csv</t>
+  </si>
+  <si>
+    <t>input_samples/fuels.csv</t>
+  </si>
+  <si>
+    <t>input_samples/fuels_context.csv</t>
+  </si>
+  <si>
+    <t>input_samples/ghg_standards-footprint.csv</t>
+  </si>
+  <si>
+    <t>input_samples/ghg_standards-fuels.csv</t>
+  </si>
+  <si>
+    <t>input_samples/required_zev_share.csv</t>
+  </si>
+  <si>
+    <t>input_samples/cost_curves.csv</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
   <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -798,7 +798,7 @@
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1038,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1173,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1227,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1248,13 +1248,13 @@
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="29" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>11</v>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4BCD25-BF33-463D-BE99-67E6DCD56BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16746451-872F-4FAC-B117-6FE2914F2D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="3255" windowWidth="19815" windowHeight="15180" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="1170" windowWidth="24735" windowHeight="19170" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Parameter</t>
   </si>
@@ -153,12 +153,6 @@
     <t>Context Name</t>
   </si>
   <si>
-    <t>Num Tech Options per ICE Vehicle</t>
-  </si>
-  <si>
-    <t>Num Tech Options per BEV Vehicle</t>
-  </si>
-  <si>
     <t>GHG Standards Fuels File</t>
   </si>
   <si>
@@ -196,6 +190,21 @@
   </si>
   <si>
     <t>input_samples/cost_curves.csv</t>
+  </si>
+  <si>
+    <t>First Pass Num Tech Options per ICE Vehicle</t>
+  </si>
+  <si>
+    <t>First Pass Num Tech Options per BEV Vehicle</t>
+  </si>
+  <si>
+    <t>Iteration Num Tech Options per ICE Vehicle</t>
+  </si>
+  <si>
+    <t>Iteration Num Tech Options per BEV Vehicle</t>
+  </si>
+  <si>
+    <t>First Pass Num Market Share Options</t>
   </si>
 </sst>
 </file>
@@ -691,16 +700,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
     <col min="3" max="4" width="48" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="17" width="21.28515625" style="11" customWidth="1"/>
@@ -984,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1011,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1038,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1065,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1092,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1119,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1173,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1227,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1248,13 +1257,13 @@
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1275,13 +1284,13 @@
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1413,123 +1422,91 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="8">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="8">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="8" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1548,143 +1525,204 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-    </row>
-    <row r="35" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-    </row>
-    <row r="36" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-    </row>
-    <row r="37" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+    </row>
+    <row r="40" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-    </row>
-    <row r="38" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-    </row>
-    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16746451-872F-4FAC-B117-6FE2914F2D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8614D88-EC6E-40F9-9993-A50221DB0085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="1170" windowWidth="24735" windowHeight="19170" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="7500" windowWidth="15975" windowHeight="12885" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>input_samples/fuels.csv</t>
   </si>
   <si>
-    <t>input_samples/fuels_context.csv</t>
-  </si>
-  <si>
     <t>input_samples/ghg_standards-footprint.csv</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>First Pass Num Market Share Options</t>
+  </si>
+  <si>
+    <t>input_samples/context_fuel_prices.csv</t>
   </si>
 </sst>
 </file>
@@ -703,8 +703,8 @@
   <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1236,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1290,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="30" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>13</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="32" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>13</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8614D88-EC6E-40F9-9993-A50221DB0085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7BBD38-85DC-4BBE-94A2-99793B9F3335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="7500" windowWidth="15975" windowHeight="12885" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="120" windowWidth="20115" windowHeight="19695" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>Parameter</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Vehicles File</t>
-  </si>
-  <si>
-    <t>Fuel Scenario Annual Data File</t>
   </si>
   <si>
     <t>Fuels File</t>
@@ -205,6 +202,15 @@
   </si>
   <si>
     <t>input_samples/context_fuel_prices.csv</t>
+  </si>
+  <si>
+    <t>input_samples/context_new_vehicle_market.csv</t>
+  </si>
+  <si>
+    <t>Context New Vehicle Market File</t>
+  </si>
+  <si>
+    <t>Context Fuel Prices File</t>
   </si>
 </sst>
 </file>
@@ -700,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -807,7 +813,7 @@
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -830,7 +836,7 @@
     </row>
     <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -924,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -993,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1020,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1047,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1068,13 +1074,13 @@
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1095,13 +1101,13 @@
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1122,13 +1128,13 @@
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1147,15 +1153,15 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1174,15 +1180,15 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1201,42 +1207,42 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-    </row>
-    <row r="21" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1255,42 +1261,42 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>40</v>
+    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="C22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1309,61 +1315,71 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="8" t="b">
+      <c r="C25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-    </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1380,32 +1396,27 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-    </row>
-    <row r="28" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1422,172 +1433,167 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="8">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-    </row>
-    <row r="30" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C33" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="8">
         <v>2</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-    </row>
-    <row r="32" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-    </row>
-    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-    </row>
-    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="8">
+      <c r="C36" s="8">
         <v>0.75</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="8" t="b">
-        <v>1</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1606,33 +1612,38 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-    </row>
-    <row r="39" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+    </row>
+    <row r="38" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -1649,42 +1660,37 @@
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
+    <row r="40" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1703,10 +1709,16 @@
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="8"/>
+    <row r="42" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -1724,6 +1736,27 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
     </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7BBD38-85DC-4BBE-94A2-99793B9F3335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B72B2C7-F8E3-4EE7-890A-AA9C67F41670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="120" windowWidth="20115" windowHeight="19695" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="405" windowWidth="20115" windowHeight="19695" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -18,17 +18,25 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Parameter</t>
   </si>
@@ -90,17 +98,7 @@
     <t>Cost File</t>
   </si>
   <si>
-    <t>Cost File Type</t>
-  </si>
-  <si>
     <t>GHG Standards File</t>
-  </si>
-  <si>
-    <t>GHG Standard Type</t>
-  </si>
-  <si>
-    <t>Flat
-Footprint</t>
   </si>
   <si>
     <t>Fixed
@@ -119,22 +117,12 @@
     <t>Allow Backsliding</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
     <t>Fixed</t>
   </si>
   <si>
     <t>Cost Curve Frontier Affinity Factor</t>
   </si>
   <si>
-    <t>CostClouds
-CostCurves</t>
-  </si>
-  <si>
-    <t>CostCurves</t>
-  </si>
-  <si>
     <t>Demanded Shares File</t>
   </si>
   <si>
@@ -211,6 +199,18 @@
   </si>
   <si>
     <t>Context Fuel Prices File</t>
+  </si>
+  <si>
+    <t>Context Case</t>
+  </si>
+  <si>
+    <t>AEO2020</t>
+  </si>
+  <si>
+    <t>Reference case</t>
+  </si>
+  <si>
+    <t>New Vehicle Price Sales Response Elasticity</t>
   </si>
 </sst>
 </file>
@@ -709,8 +709,8 @@
   <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -813,7 +813,7 @@
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -836,12 +836,14 @@
     </row>
     <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -858,8 +860,15 @@
       <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -875,10 +884,8 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -895,86 +902,84 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="b">
+      <c r="C9" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -991,42 +996,37 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+    <row r="12" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1047,13 +1047,13 @@
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1128,13 +1128,13 @@
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1180,15 +1180,15 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1215,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1234,15 +1234,15 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1261,42 +1261,42 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>21</v>
+    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="C22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1315,71 +1315,61 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
+      <c r="C25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1396,27 +1386,32 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-    </row>
-    <row r="28" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+    <row r="27" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1433,167 +1428,172 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="8">
         <v>10</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-    </row>
-    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-    </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0.75</v>
+      <c r="C36" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="8" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-0.5</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1711,13 +1711,13 @@
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B72B2C7-F8E3-4EE7-890A-AA9C67F41670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39CA365-E399-4312-8587-4670A22BE29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="405" windowWidth="20115" windowHeight="19695" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="735" windowWidth="17625" windowHeight="16530" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>Parameter</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>New Vehicle Price Sales Response Elasticity</t>
+  </si>
+  <si>
+    <t>Context Fuel Upstream File</t>
+  </si>
+  <si>
+    <t>input_samples/context_fuel_upstream.csv</t>
   </si>
 </sst>
 </file>
@@ -706,11 +712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,13 +1188,13 @@
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1209,13 +1215,13 @@
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1234,69 +1240,69 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>20</v>
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>33</v>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="C22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1315,61 +1321,71 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="8" t="b">
+      <c r="C25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-    </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1386,32 +1402,27 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-    </row>
-    <row r="28" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1428,172 +1439,167 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="8">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-    </row>
-    <row r="30" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C32" s="8">
         <v>2</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-    </row>
-    <row r="32" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C33" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C34" s="8">
         <v>2</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-    </row>
-    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="10" t="b">
+      <c r="C35" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-    </row>
-    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C36" s="8">
         <v>0.75</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="8" t="b">
-        <v>1</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1614,13 +1620,13 @@
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="8">
-        <v>-0.5</v>
+        <v>11</v>
+      </c>
+      <c r="C37" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1639,33 +1645,38 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-    </row>
-    <row r="40" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -1682,36 +1693,31 @@
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>21</v>
@@ -1736,10 +1742,16 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="8"/>
+    <row r="43" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -1757,6 +1769,27 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
     </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39CA365-E399-4312-8587-4670A22BE29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A02FCE-0883-4865-A363-40D0D8BBF343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="735" windowWidth="17625" windowHeight="16530" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="735" windowWidth="17625" windowHeight="16530" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -715,8 +715,8 @@
   <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="10" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A02FCE-0883-4865-A363-40D0D8BBF343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E732E12-A653-4389-80E8-D0372095F4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="735" windowWidth="17625" windowHeight="16530" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -101,10 +101,6 @@
     <t>GHG Standards File</t>
   </si>
   <si>
-    <t>Fixed
-Dynamic</t>
-  </si>
-  <si>
     <t>Stock Deregistration</t>
   </si>
   <si>
@@ -117,9 +113,6 @@
     <t>Allow Backsliding</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
     <t>Cost Curve Frontier Affinity Factor</t>
   </si>
   <si>
@@ -217,6 +210,13 @@
   </si>
   <si>
     <t>input_samples/context_fuel_upstream.csv</t>
+  </si>
+  <si>
+    <t>fixed
+dynamic</t>
+  </si>
+  <si>
+    <t>fixed</t>
   </si>
 </sst>
 </file>
@@ -715,23 +715,23 @@
   <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="48" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="17" width="21.28515625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="17" width="21.33203125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7109375" style="1"/>
+    <col min="20" max="20" width="16.44140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -772,7 +772,7 @@
       <c r="AF1" s="17"/>
       <c r="AG1" s="17"/>
     </row>
-    <row r="2" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -817,9 +817,9 @@
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
     </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -840,15 +840,15 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -865,15 +865,15 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -890,7 +890,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -908,7 +908,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -963,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -982,7 +982,7 @@
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1002,7 +1002,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1051,7 +1051,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1078,7 +1078,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1105,15 +1105,15 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1132,7 +1132,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1159,15 +1159,15 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1186,15 +1186,15 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1213,15 +1213,15 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1240,7 +1240,7 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1267,7 +1267,7 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1294,15 +1294,15 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1321,15 +1321,15 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1348,7 +1348,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>15</v>
       </c>
@@ -1375,9 +1375,9 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
@@ -1402,7 +1402,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1419,7 +1419,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1439,7 +1439,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>8</v>
       </c>
@@ -1461,9 +1461,9 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
@@ -1488,9 +1488,9 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>13</v>
@@ -1499,9 +1499,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
@@ -1526,9 +1526,9 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -1537,9 +1537,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
@@ -1564,9 +1564,9 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>11</v>
@@ -1591,9 +1591,9 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>13</v>
@@ -1618,9 +1618,9 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>11</v>
@@ -1645,9 +1645,9 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
@@ -1672,8 +1672,8 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -1693,7 +1693,7 @@
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>7</v>
       </c>
@@ -1715,15 +1715,15 @@
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -1742,15 +1742,15 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1769,7 +1769,7 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E732E12-A653-4389-80E8-D0372095F4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EB84D7-3516-4ECA-B21A-EC4D0122B3D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Parameter</t>
   </si>
@@ -101,12 +101,6 @@
     <t>GHG Standards File</t>
   </si>
   <si>
-    <t>Stock Deregistration</t>
-  </si>
-  <si>
-    <t>Stock VMT</t>
-  </si>
-  <si>
     <t>Slice Tech Combo Tables</t>
   </si>
   <si>
@@ -212,11 +206,58 @@
     <t>input_samples/context_fuel_upstream.csv</t>
   </si>
   <si>
-    <t>fixed
-dynamic</t>
-  </si>
-  <si>
-    <t>fixed</t>
+    <t>input_samples/reregistration_fixed_by_age.csv</t>
+  </si>
+  <si>
+    <t>input_samples/annual_vmt_fixed_by_age.csv</t>
+  </si>
+  <si>
+    <t>Stock Deregistration File</t>
+  </si>
+  <si>
+    <t>Stock VMT File</t>
+  </si>
+  <si>
+    <t>Context Criteria Cost Factors File</t>
+  </si>
+  <si>
+    <t>Context SCC Cost Factors File</t>
+  </si>
+  <si>
+    <t>Context Powersector Emission Factors File</t>
+  </si>
+  <si>
+    <t>Context Refinery Emission Factors File</t>
+  </si>
+  <si>
+    <t>Context Vehicle Emission Factors File</t>
+  </si>
+  <si>
+    <t>input_samples/context_cost_factors-criteria.csv</t>
+  </si>
+  <si>
+    <t>input_samples/context_cost_factors-scc.csv</t>
+  </si>
+  <si>
+    <t>input_samples/context_emission_factors-powersector.csv</t>
+  </si>
+  <si>
+    <t>input_samples/context_emission_factors-refinery.csv</t>
+  </si>
+  <si>
+    <t>input_samples/context_emission_factors-vehicles.csv</t>
+  </si>
+  <si>
+    <t>Context Implicit Price Deflators File</t>
+  </si>
+  <si>
+    <t>Context Consumer Price Index File</t>
+  </si>
+  <si>
+    <t>input_samples/context_cpi_price_deflators.csv</t>
+  </si>
+  <si>
+    <t>input_samples/context_implicit_price_deflators.csv</t>
   </si>
 </sst>
 </file>
@@ -712,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -819,7 +860,7 @@
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -842,13 +883,13 @@
     </row>
     <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -867,13 +908,13 @@
     </row>
     <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -963,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1032,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1059,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1086,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1107,13 +1148,13 @@
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1140,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1161,13 +1202,13 @@
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1188,13 +1229,13 @@
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1215,13 +1256,13 @@
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1248,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1275,7 +1316,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1296,13 +1337,13 @@
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1323,13 +1364,13 @@
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1348,42 +1389,42 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="8" t="b">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1402,112 +1443,128 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-    </row>
-    <row r="28" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-    </row>
-    <row r="29" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+    <row r="27" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="8">
-        <v>10</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="8">
-        <v>10</v>
-      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1528,18 +1585,18 @@
     </row>
     <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
@@ -1564,42 +1621,26 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
+    <row r="35" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="8">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="8">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1618,42 +1659,42 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>33</v>
+    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
+      <c r="C37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="8">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1672,107 +1713,113 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-    </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+    </row>
+    <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+    </row>
+    <row r="43" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-    </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-    </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -1790,6 +1837,168 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
     </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+    </row>
+    <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+    </row>
+    <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\input_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EB84D7-3516-4ECA-B21A-EC4D0122B3D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EFFE9E-8A7D-4E0F-9D96-17891FFBA064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="255" windowWidth="17955" windowHeight="16395" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -756,23 +756,23 @@
   <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
     <col min="3" max="4" width="48" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="17" width="21.33203125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="17" width="21.28515625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="1"/>
+    <col min="20" max="20" width="16.42578125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="AF1" s="17"/>
       <c r="AG1" s="17"/>
     </row>
-    <row r="2" spans="1:33" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
     </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>50</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -949,7 +949,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1043,7 +1043,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>54</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>58</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>59</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1514,7 +1514,7 @@
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
     </row>
-    <row r="30" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1534,7 +1534,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1583,7 +1583,7 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>41</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>42</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>43</v>
       </c>
@@ -1629,10 +1629,10 @@
         <v>13</v>
       </c>
       <c r="C35" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>22</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>23</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>31</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -1740,7 +1740,7 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>53</v>
       </c>
@@ -1767,8 +1767,8 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -1788,7 +1788,7 @@
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
     </row>
-    <row r="43" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>60</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>61</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>62</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>63</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>64</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>70</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
     </row>
-    <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>71</v>
       </c>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EFFE9E-8A7D-4E0F-9D96-17891FFBA064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1987BD18-75E3-472C-A27B-227F31A4A87F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="255" windowWidth="17955" windowHeight="16395" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1591,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1987BD18-75E3-472C-A27B-227F31A4A87F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE6848-997E-4C0F-949A-E8E14CB20DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="255" windowWidth="17955" windowHeight="16395" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8445" yWindow="2520" windowWidth="16635" windowHeight="13275" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>Parameter</t>
   </si>
@@ -161,21 +161,6 @@
     <t>input_samples/cost_curves.csv</t>
   </si>
   <si>
-    <t>First Pass Num Tech Options per ICE Vehicle</t>
-  </si>
-  <si>
-    <t>First Pass Num Tech Options per BEV Vehicle</t>
-  </si>
-  <si>
-    <t>Iteration Num Tech Options per ICE Vehicle</t>
-  </si>
-  <si>
-    <t>Iteration Num Tech Options per BEV Vehicle</t>
-  </si>
-  <si>
-    <t>First Pass Num Market Share Options</t>
-  </si>
-  <si>
     <t>input_samples/context_fuel_prices.csv</t>
   </si>
   <si>
@@ -258,6 +243,15 @@
   </si>
   <si>
     <t>input_samples/context_implicit_price_deflators.csv</t>
+  </si>
+  <si>
+    <t>Num Market Share Options</t>
+  </si>
+  <si>
+    <t>Num Tech Options per ICE Vehicle</t>
+  </si>
+  <si>
+    <t>Num Tech Options per BEV Vehicle</t>
   </si>
 </sst>
 </file>
@@ -753,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -908,13 +902,13 @@
     </row>
     <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1202,13 +1196,13 @@
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1229,13 +1223,13 @@
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1256,13 +1250,13 @@
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1391,13 +1385,13 @@
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1418,13 +1412,13 @@
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1558,7 +1552,7 @@
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
@@ -1585,24 +1579,24 @@
     </row>
     <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1621,26 +1615,42 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C36" s="8">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1659,42 +1669,42 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>22</v>
+    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="10" t="b">
+      <c r="C37" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="8">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1713,112 +1723,112 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-    </row>
-    <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="8">
-        <v>-0.5</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-    </row>
-    <row r="41" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-    </row>
-    <row r="43" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+    <row r="39" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+    </row>
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -1839,13 +1849,13 @@
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -1866,13 +1876,13 @@
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1893,7 +1903,7 @@
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>3</v>
@@ -1919,14 +1929,14 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>64</v>
+      <c r="A48" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -1945,60 +1955,6 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-    </row>
-    <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE6848-997E-4C0F-949A-E8E14CB20DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517163B0-FAF1-4789-A097-956419F7BF0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="2520" windowWidth="16635" windowHeight="13275" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="1485" windowWidth="20325" windowHeight="15885" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -751,7 +751,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517163B0-FAF1-4789-A097-956419F7BF0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24156099-7159-4D90-A835-4B240A780BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="1485" windowWidth="20325" windowHeight="15885" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="225" windowWidth="15690" windowHeight="19695" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>Parameter</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>Num Tech Options per BEV Vehicle</t>
+  </si>
+  <si>
+    <t>Context Energy Security Cost Factors File</t>
+  </si>
+  <si>
+    <t>input_samples/context_cost_factors-energysecurity.csv</t>
   </si>
 </sst>
 </file>
@@ -747,18 +753,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="48" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="17" width="21.28515625" style="11" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="1" customWidth="1"/>
@@ -1955,6 +1962,33 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
     </row>
+    <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input_samples/single_session_batch.xlsx
+++ b/input_samples/single_session_batch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\input_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\input_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24156099-7159-4D90-A835-4B240A780BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930599B7-42AF-4CD4-A6DC-2134AE83CCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="225" windowWidth="15690" windowHeight="19695" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>Parameter</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>input_samples/context_cost_factors-energysecurity.csv</t>
+  </si>
+  <si>
+    <t>Context Congestion-Noise Cost Factors File</t>
+  </si>
+  <si>
+    <t>input_samples/context_cost_factors-congestion-noise.csv</t>
   </si>
 </sst>
 </file>
@@ -753,27 +759,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
+      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="17" width="21.28515625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="17" width="21.33203125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7109375" style="1"/>
+    <col min="20" max="20" width="16.44140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -814,7 +820,7 @@
       <c r="AF1" s="17"/>
       <c r="AG1" s="17"/>
     </row>
-    <row r="2" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -834,7 +840,7 @@
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -859,7 +865,7 @@
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
     </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -882,7 +888,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -907,7 +913,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>45</v>
       </c>
@@ -932,7 +938,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -950,7 +956,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -970,7 +976,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1003,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1030,7 @@
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1044,7 +1050,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1072,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1093,7 +1099,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1120,7 +1126,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1147,7 +1153,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
@@ -1174,7 +1180,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1201,7 +1207,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>44</v>
       </c>
@@ -1228,7 +1234,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
@@ -1255,7 +1261,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>43</v>
       </c>
@@ -1282,7 +1288,7 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1309,7 +1315,7 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -1336,7 +1342,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -1363,7 +1369,7 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1390,7 +1396,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>53</v>
       </c>
@@ -1417,7 +1423,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>54</v>
       </c>
@@ -1444,7 +1450,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
@@ -1471,7 +1477,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1504,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1515,7 +1521,7 @@
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
     </row>
-    <row r="30" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1535,7 +1541,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +1563,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
@@ -1584,7 +1590,7 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>70</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>71</v>
       </c>
@@ -1622,7 +1628,7 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>22</v>
       </c>
@@ -1649,7 +1655,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +1682,7 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>31</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1703,7 +1709,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
@@ -1730,8 +1736,8 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -1751,7 +1757,7 @@
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1779,7 @@
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>55</v>
       </c>
@@ -1800,7 +1806,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>56</v>
       </c>
@@ -1827,15 +1833,15 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -1854,15 +1860,15 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -1881,15 +1887,15 @@
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1908,15 +1914,15 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -1935,15 +1941,15 @@
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>66</v>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -1962,15 +1968,15 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -1989,6 +1995,33 @@
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
     </row>
+    <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
